--- a/output/StructureDefinition-ch-etoc-immunization.xlsx
+++ b/output/StructureDefinition-ch-etoc-immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -149,13 +149,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>CH eToc Immunization</t>
   </si>
   <si>
-    <t>Describes the event of a patient being administered a vaccination or a record of a vaccination as reported by a patient, a clinician or another party and may include vaccine reaction information and what vaccination protocol was followed</t>
+    <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -177,6 +174,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -444,108 +444,40 @@
     <t>Immunization.vaccineCode</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+    <t>Vaccine product administered</t>
+  </si>
+  <si>
+    <t>Vaccine that was administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>The code for vaccine product administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
-    <t>Vaccine that was administered or was to be administered.Several kinds of vaccine product coding could be provided.
-     The IPS assumes that either the type of the vaccine for particular disease or diseases (e.g. MMR vaccine) against which the patient has been immunised is provided; or the known absent / unknown code.
-     Other coded information can be provided as well as: the IDMP Pharmaceutical Product Identifiers (PhPID), Medicinal Product Identifier (MPID), Packaged Medicinal Product Identifier (PCID), when available, or equivalent coded concepts; the WHO ATC codes; or any other kind of code that that identifies, classifies or cluster the administered product.</t>
-  </si>
-  <si>
-    <t>Vaccine that was administered or was to be administered. Several kinds of vaccine product coding could be provided.
-The IPS assumes that either the type of the vaccine for particular disease or diseases (e.g. MMR vaccine) against which the patient has been immunized is provided; or the known absent / unknown.
-    Other coded information can be provided as well as:
-    1. The IDMP Pharmaceutical Product Identifier (PhPID), Level 1, [Substance(s)]. Example: Amoxicillin and Clavulanate Potassium; or any other equivalent coded concept.
-    2. The IDMP Pharmaceutical Product Identifier (PhPID), Level 2 [Substance(s) + Strength + reference strength]. Example: Amoxicillin 875 mg and Clavulanate Potassium 125 mg; or any other equivalent coded concept.
-    3. The IDMP Pharmaceutical Product Identifier (PhPID), Level 3 [Substance(s) + administrable dose form]. Example: Amoxicillin and Clavulanate Potassium, Oral Tablet; or any other equivalent coded concept.
-    4. The IDMP Pharmaceutical Product Identifier (PhPID), Level 4 [Substance(s) + strength + reference strength + administrable dose form]. Example: Amoxicillin 875 mg and clavulanate potassium 125 mg, oral tablet; or any other equivalent coded concept.
-    5. The IDMP Medicinal Product Identifier (MPID) or any equivalent Medicinal Product Identifier. IDMP MPID uniquely identifies a Medicinal Product, reflecting (but not replacing) any other authorization numbers allocated by a regulator. MPID implies one (set of) PhPID.     The MPID shall use a common segment pattern related to a Medicinal Product, which, when each segment is valued shall define a specific MPID concept.
-    6. The IDMP Packaged Medicinal Product Identifier (PCID) or any equivalent Packaged Medicinal Product Identifier.     Uniquely identifies a Medicinal Product based on its packaging. This implies one MPID can be associated with more than one PCID, if the same Medicinal Product has more than one type of package.
-    7. Any other kind of code that that identifies, classifies or clusters the administered product (e.g. the medicinal product or the product class).
-    The value sets used for the PhPID, MPID and PCID identifiers are provisional and include only few equivalent concepts used for exemplification purposes, they will be updated with real IDMP identifiers when they will become available.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>The type of vaccine for particular disease or diseases against which the patient has been immunised.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-uv-ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Discriminated by bound value set</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>vaccineGPSCode</t>
-  </si>
-  <si>
-    <t>Code for vaccine from the SNOMED CT GPS code set</t>
-  </si>
-  <si>
-    <t>Code for a vaccine that is selected from the SNOMED CT GPS code set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-gps-uv-ips</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>atcClass</t>
-  </si>
-  <si>
-    <t>WHO ATC classification</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/whoatc-uv-ips</t>
-  </si>
-  <si>
-    <t>absentOrUnknownImmunization</t>
-  </si>
-  <si>
-    <t>Absent Unknown Immunization</t>
-  </si>
-  <si>
-    <t>A reference to a code indicating that there there are no known immunizations or that this information is unknown.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-immunizations-uv-ips</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips)
-</t>
-  </si>
-  <si>
     <t>Who was immunized</t>
   </si>
   <si>
@@ -562,117 +494,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.patient.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.patient.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Immunization.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Immunization.encounter</t>
@@ -731,28 +552,6 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
   </si>
   <si>
-    <t>Immunization.occurrence[x].id</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x].extension</t>
-  </si>
-  <si>
-    <t>data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
-</t>
-  </si>
-  <si>
-    <t>occurrence[x] absence reason</t>
-  </si>
-  <si>
-    <t>Provides a reason why the occurrence is missing.</t>
-  </si>
-  <si>
-    <t>ANY.nullFlavor</t>
-  </si>
-  <si>
     <t>Immunization.recorded</t>
   </si>
   <si>
@@ -905,23 +704,49 @@
     <t>Immunization.site</t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/target-site-uv-ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Body site vaccine  was administered</t>
+  </si>
+  <si>
+    <t>Body site where vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
   </si>
   <si>
     <t>Immunization.route</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration</t>
+    <t>How vaccine entered body</t>
+  </si>
+  <si>
+    <t>The path by which the vaccine product is taken into the body.</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
   </si>
   <si>
     <t>Immunization.doseQuantity</t>
@@ -968,7 +793,25 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -997,6 +840,9 @@
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
@@ -1341,16 +1187,10 @@
     <t>The vaccine preventable disease the dose is being administered against.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/targetDiseases-uv-ips</t>
-  </si>
-  <si>
-    <t>targetDiseaseGPSCode</t>
-  </si>
-  <si>
-    <t>Code for a disease the vaccination is against from the SNOMED CT GPS code set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/targetDiseases-gps-uv-ips</t>
+    <t>The vaccine preventable disease the dose is being administered for.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.doseNumber[x]</t>
@@ -1524,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1534,7 +1374,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1543,7 +1383,7 @@
     <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1556,11 +1396,11 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="90.83984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.0625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.83984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.41796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1697,7 +1537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>40</v>
       </c>
@@ -1713,22 +1553,22 @@
         <v>43</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1791,16 +1631,16 @@
         <v>41</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>41</v>
@@ -1811,7 +1651,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1822,16 +1662,16 @@
         <v>42</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>53</v>
@@ -1899,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>41</v>
@@ -1936,16 +1776,16 @@
         <v>42</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>59</v>
@@ -2011,7 +1851,7 @@
         <v>42</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>41</v>
@@ -2048,16 +1888,16 @@
         <v>42</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>65</v>
@@ -2125,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>41</v>
@@ -2162,7 +2002,7 @@
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -2239,7 +2079,7 @@
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
@@ -2276,7 +2116,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>41</v>
@@ -2353,7 +2193,7 @@
         <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>41</v>
@@ -2624,7 +2464,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
@@ -2833,7 +2673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>116</v>
       </c>
@@ -2843,19 +2683,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>71</v>
@@ -2920,10 +2760,10 @@
         <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>41</v>
@@ -2960,7 +2800,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>41</v>
@@ -3037,7 +2877,7 @@
         <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
@@ -3071,32 +2911,30 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -3121,37 +2959,37 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>41</v>
@@ -3160,55 +2998,53 @@
         <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3235,11 +3071,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -3257,13 +3095,13 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -3272,28 +3110,26 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3302,25 +3138,25 @@
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3347,11 +3183,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3369,13 +3207,13 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
@@ -3384,57 +3222,57 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3459,11 +3297,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3481,13 +3321,13 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -3496,24 +3336,24 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3521,28 +3361,28 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3593,13 +3433,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3608,16 +3448,16 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3625,7 +3465,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3636,27 +3476,29 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3705,31 +3547,31 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3737,18 +3579,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3760,16 +3602,16 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3795,63 +3637,63 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3859,32 +3701,30 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3933,31 +3773,31 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3965,7 +3805,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3976,7 +3816,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3985,20 +3825,18 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -4023,13 +3861,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4047,13 +3885,13 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -4065,21 +3903,21 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4090,7 +3928,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -4099,20 +3937,18 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4161,13 +3997,13 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
@@ -4179,21 +4015,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4204,7 +4040,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -4213,20 +4049,18 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -4275,13 +4109,13 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
@@ -4293,10 +4127,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4307,7 +4141,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4318,7 +4152,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -4330,13 +4164,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4363,13 +4197,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4387,13 +4221,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -4402,24 +4236,24 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4427,32 +4261,30 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4477,13 +4309,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4501,13 +4333,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4516,24 +4348,24 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4544,7 +4376,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4556,13 +4388,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4613,28 +4445,28 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4645,11 +4477,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4665,20 +4497,18 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4715,19 +4545,19 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4739,16 +4569,16 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4757,13 +4587,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4772,10 +4600,10 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4784,13 +4612,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4841,19 +4669,19 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
@@ -4862,7 +4690,7 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4873,18 +4701,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -4896,15 +4724,17 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4953,19 +4783,19 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
@@ -4974,10 +4804,10 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4985,41 +4815,43 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5067,31 +4899,31 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5099,7 +4931,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5110,29 +4942,27 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5157,13 +4987,13 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5181,13 +5011,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -5196,16 +5026,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5213,7 +5043,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5221,30 +5051,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5293,13 +5125,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5308,16 +5140,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5325,7 +5157,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5336,25 +5168,25 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5405,13 +5237,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5420,24 +5252,24 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5448,7 +5280,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5460,13 +5292,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5493,13 +5325,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5517,13 +5349,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5532,24 +5364,24 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5560,7 +5392,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5572,13 +5404,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5629,13 +5461,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5644,13 +5476,13 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5661,7 +5493,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5672,34 +5504,36 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5719,11 +5553,13 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5741,16 +5577,16 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>63</v>
@@ -5759,10 +5595,10 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5771,9 +5607,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5784,10 +5620,10 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5796,17 +5632,15 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5831,11 +5665,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5853,16 +5689,16 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>63</v>
@@ -5871,10 +5707,10 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5885,7 +5721,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5896,7 +5732,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5908,13 +5744,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5965,28 +5801,28 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5995,9 +5831,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6008,25 +5844,25 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6077,28 +5913,28 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6109,18 +5945,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -6132,15 +5968,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6189,19 +6027,19 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
@@ -6210,7 +6048,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6221,11 +6059,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6238,24 +6076,26 @@
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6303,7 +6143,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6324,7 +6164,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6335,43 +6175,39 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6419,25 +6255,25 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>94</v>
@@ -6451,7 +6287,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6462,7 +6298,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6471,16 +6307,16 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6507,13 +6343,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6531,13 +6367,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6546,13 +6382,13 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6561,9 +6397,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6571,32 +6407,30 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6645,13 +6479,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6660,16 +6494,16 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>94</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6677,7 +6511,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6688,7 +6522,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -6697,16 +6531,16 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6757,13 +6591,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6772,13 +6606,13 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6884,13 +6718,13 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AL47" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6901,7 +6735,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6912,7 +6746,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -6924,13 +6758,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6957,13 +6791,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6981,13 +6815,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -6996,7 +6830,7 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -7011,7 +6845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>340</v>
       </c>
@@ -7024,19 +6858,19 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>341</v>
@@ -7051,9 +6885,7 @@
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P49" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7103,7 +6935,7 @@
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -7115,10 +6947,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7140,7 +6972,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7152,13 +6984,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7185,13 +7017,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7209,19 +7041,19 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7230,7 +7062,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7241,11 +7073,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7264,15 +7096,17 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>98</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7321,7 +7155,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7333,7 +7167,7 @@
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>354</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
@@ -7342,7 +7176,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7353,39 +7187,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7433,19 +7271,19 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
@@ -7454,7 +7292,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7465,18 +7303,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7488,17 +7326,15 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7547,28 +7383,28 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7579,43 +7415,39 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
@@ -7663,28 +7495,28 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>94</v>
+        <v>358</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7695,7 +7527,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7706,7 +7538,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7718,13 +7550,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7775,13 +7607,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7793,10 +7625,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7807,7 +7639,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7818,7 +7650,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7830,13 +7662,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7887,13 +7719,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -7919,7 +7751,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7930,7 +7762,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -7942,13 +7774,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7999,28 +7831,28 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8031,18 +7863,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8054,15 +7886,17 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8111,28 +7945,28 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8143,11 +7977,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8160,22 +7994,26 @@
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8199,13 +8037,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8223,7 +8061,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8235,13 +8073,13 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>94</v>
@@ -8255,7 +8093,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8266,7 +8104,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8278,13 +8116,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8311,13 +8149,13 @@
         <v>41</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8335,13 +8173,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8367,7 +8205,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8378,7 +8216,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8390,17 +8228,15 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8449,13 +8285,13 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
@@ -8467,10 +8303,10 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>389</v>
+        <v>94</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8481,7 +8317,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8492,7 +8328,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8504,13 +8340,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8537,13 +8373,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8561,19 +8397,19 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
@@ -8582,7 +8418,7 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8593,18 +8429,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -8616,16 +8452,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>98</v>
+        <v>383</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8675,19 +8511,19 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
@@ -8696,7 +8532,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8707,43 +8543,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>304</v>
+        <v>387</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -8791,19 +8625,19 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
@@ -8821,1472 +8655,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X75" s="2"/>
-      <c r="Y75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10296,7 +8666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
